--- a/data_automation/saved.xlsx
+++ b/data_automation/saved.xlsx
@@ -1,56 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jooney Han\Desktop\과학전람회\data_automation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9594D3D-844A-48D2-8C38-40B3E6DFAE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="분석 데이터" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="분석 데이터" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>시간</t>
+  </si>
+  <si>
+    <t>파라미터</t>
+  </si>
+  <si>
+    <t>기음 진폭 (dB)</t>
+  </si>
+  <si>
+    <t>기음 진동수 (Hz)</t>
+  </si>
+  <si>
+    <t>압력 (pa)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="20"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1499984740745262"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -83,89 +111,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -431,95 +400,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col width="17.296875" customWidth="1" style="2" min="1" max="1"/>
-    <col width="25.19921875" customWidth="1" style="2" min="2" max="2"/>
-    <col width="24.796875" customWidth="1" style="2" min="3" max="3"/>
-    <col width="28.59765625" customWidth="1" style="2" min="4" max="4"/>
-    <col width="16.796875" customWidth="1" style="2" min="5" max="5"/>
-    <col width="12.796875" customWidth="1" style="2" min="6" max="6"/>
-    <col width="15" customWidth="1" style="2" min="7" max="7"/>
-    <col width="33" customWidth="1" style="2" min="8" max="8"/>
-    <col width="19.296875" customWidth="1" style="2" min="9" max="9"/>
-    <col width="26.69921875" customWidth="1" style="2" min="10" max="10"/>
-    <col width="8.796875" customWidth="1" style="2" min="11" max="16384"/>
+    <col min="1" max="1" width="17.296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.19921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.796875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.296875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26.69921875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.796875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customFormat="1" customHeight="1" s="3">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>시간</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>파라미터</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>기음 진폭 (dB)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>기음 진동수 (Hz)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>압력 (pa)</t>
-        </is>
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>38.97414016723633</v>
-      </c>
-      <c r="D2" t="n">
-        <v>501.1363636363636</v>
+      <c r="C2">
+        <v>38.974140167236328</v>
+      </c>
+      <c r="D2">
+        <v>501.13636363636363</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>25.04597473144531</v>
-      </c>
-      <c r="D3" t="n">
-        <v>501.1363636363636</v>
+      <c r="C3">
+        <v>25.045974731445309</v>
+      </c>
+      <c r="D3">
+        <v>501.13636363636363</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7">
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C7" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data_automation/saved.xlsx
+++ b/data_automation/saved.xlsx
@@ -1,84 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jooney Han\Desktop\과학전람회\data_automation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9594D3D-844A-48D2-8C38-40B3E6DFAE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="분석 데이터" sheetId="1" r:id="rId1"/>
+    <sheet name="분석 데이터" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>시간</t>
-  </si>
-  <si>
-    <t>파라미터</t>
-  </si>
-  <si>
-    <t>기음 진폭 (dB)</t>
-  </si>
-  <si>
-    <t>기음 진동수 (Hz)</t>
-  </si>
-  <si>
-    <t>압력 (pa)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="20"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.1499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -111,30 +83,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -400,81 +431,276 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="17.296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.19921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.296875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="26.69921875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.796875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="2"/>
+    <col width="17.296875" customWidth="1" style="2" min="1" max="1"/>
+    <col width="16.796875" customWidth="1" style="2" min="2" max="2"/>
+    <col width="24.796875" customWidth="1" style="2" min="3" max="3"/>
+    <col width="28.59765625" customWidth="1" style="2" min="4" max="4"/>
+    <col width="16.796875" customWidth="1" style="2" min="5" max="5"/>
+    <col width="12.796875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="15" customWidth="1" style="2" min="7" max="7"/>
+    <col width="33" customWidth="1" style="2" min="8" max="8"/>
+    <col width="19.296875" customWidth="1" style="2" min="9" max="9"/>
+    <col width="26.69921875" customWidth="1" style="2" min="10" max="10"/>
+    <col width="8.796875" customWidth="1" style="2" min="11" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" ht="30" customFormat="1" customHeight="1" s="3">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>시간</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>파라미터</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>기음 진폭 (dB)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>기음 진동수 (Hz)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>압력 (pa)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-9.953254699707031</v>
+      </c>
+      <c r="D2" t="n">
+        <v>501.1363636363636</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>95050</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" t="n">
+        <v>-1.294661045074463</v>
+      </c>
+      <c r="D3" t="n">
+        <v>501.1363636363636</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>95082</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.784343242645264</v>
+      </c>
+      <c r="D4" t="n">
+        <v>501.1363636363636</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>97073</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-8.958560943603516</v>
+      </c>
+      <c r="D5" t="n">
+        <v>501.1363636363636</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>100070</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-10.95376873016357</v>
+      </c>
+      <c r="D6" t="n">
+        <v>501.1363636363636</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>101450</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-6.476333141326904</v>
+      </c>
+      <c r="D7" t="n">
+        <v>501.1363636363636</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>103522</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-10.17974472045898</v>
+      </c>
+      <c r="D8" t="n">
+        <v>501.1363636363636</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>104627</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-7.252796173095703</v>
+      </c>
+      <c r="D9" t="n">
+        <v>501.1363636363636</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>106284</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-7.161702632904053</v>
+      </c>
+      <c r="D10" t="n">
+        <v>501.1363636363636</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>108008</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-13.56424427032471</v>
+      </c>
+      <c r="D11" t="n">
+        <v>501.1363636363636</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>107442</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-11.47398853302002</v>
+      </c>
+      <c r="D12" t="n">
+        <v>501.1363636363636</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>107071</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>38.974140167236328</v>
-      </c>
-      <c r="D2">
-        <v>501.13636363636363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>25.045974731445309</v>
-      </c>
-      <c r="D3">
-        <v>501.13636363636363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C7" s="2" t="s">
-        <v>5</v>
+      <c r="C13" t="n">
+        <v>-16.66324424743652</v>
+      </c>
+      <c r="D13" t="n">
+        <v>501.1363636363636</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>106560</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-9.975227355957031</v>
+      </c>
+      <c r="D14" t="n">
+        <v>501.1363636363636</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>106319</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-7.41286563873291</v>
+      </c>
+      <c r="D15" t="n">
+        <v>501.1363636363636</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>105942</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-9.871194839477539</v>
+      </c>
+      <c r="D16" t="n">
+        <v>501.1363636363636</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>105795</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" s="2" t="n">
+        <v>105616</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>